--- a/about/Leadership 2024-25.xlsx
+++ b/about/Leadership 2024-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/about/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C484F-750F-8D4D-87EA-196E3FA84F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB11FBA2-B26B-824A-99FC-BEF0E6B5067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-49460" yWindow="-1320" windowWidth="18200" windowHeight="20580" firstSheet="20" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="465">
   <si>
     <t>Position</t>
   </si>
@@ -80,12 +80,6 @@
     <t>Past President</t>
   </si>
   <si>
-    <t>Barry Rosenfeld</t>
-  </si>
-  <si>
-    <t>rosenfeld@fordham.edu</t>
-  </si>
-  <si>
     <t>President Elect</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>Tara Ryan</t>
   </si>
   <si>
-    <t>tarajryan@gmail.com</t>
-  </si>
-  <si>
     <t>Chair</t>
   </si>
   <si>
@@ -239,18 +230,12 @@
     <t>Margit Wiesner</t>
   </si>
   <si>
-    <t>mfwiesner@uh.edu</t>
-  </si>
-  <si>
     <t>2021-2024</t>
   </si>
   <si>
     <t>Cynthia Willis-Esqueda</t>
   </si>
   <si>
-    <t>cwillis-esqueda1@unl.edu</t>
-  </si>
-  <si>
     <t>Sharon Kelley</t>
   </si>
   <si>
@@ -263,24 +248,9 @@
     <t>Emily Pica</t>
   </si>
   <si>
-    <t>Picae@apsu.edu</t>
-  </si>
-  <si>
     <t>2023-2026</t>
   </si>
   <si>
-    <t>Daniel Marston</t>
-  </si>
-  <si>
-    <t>drdanmarston@comcast.net</t>
-  </si>
-  <si>
-    <t>Deborah Goldfarb</t>
-  </si>
-  <si>
-    <t>dgoldfar@fiu.edu</t>
-  </si>
-  <si>
     <t>Co-chair</t>
   </si>
   <si>
@@ -293,30 +263,9 @@
     <t>Jason Lawrence</t>
   </si>
   <si>
-    <t>Jason.lawrence@dmh.mo.gov</t>
-  </si>
-  <si>
-    <t>Evelyn Maeder</t>
-  </si>
-  <si>
-    <t>Evelyn.maeder@carleton.ca</t>
-  </si>
-  <si>
-    <t>Adam Schmidt</t>
-  </si>
-  <si>
-    <t>Adam.t.schmidt@ttu.edu</t>
-  </si>
-  <si>
     <t>Jared Ruchensky</t>
   </si>
   <si>
-    <t>Jir107@shsu.edu</t>
-  </si>
-  <si>
-    <t>Andrea Miller</t>
-  </si>
-  <si>
     <t>Amiller0@illinois.edu</t>
   </si>
   <si>
@@ -329,27 +278,15 @@
     <t>Laljit Sidhu</t>
   </si>
   <si>
-    <t>dr.sidhu@alienist.us</t>
-  </si>
-  <si>
     <t>Nicole Azores-Gococo</t>
   </si>
   <si>
-    <t>nazores@emory.edu</t>
-  </si>
-  <si>
     <t>Taylor York</t>
   </si>
   <si>
-    <t>Tyork@paloaltou.edu</t>
-  </si>
-  <si>
     <t>Lara Guzman-Hosta</t>
   </si>
   <si>
-    <t>lguzman.hosta@gmail.com</t>
-  </si>
-  <si>
     <t>James Andretta</t>
   </si>
   <si>
@@ -386,18 +323,9 @@
     <t>ehaney-caron@jjay.cuny.edu</t>
   </si>
   <si>
-    <t>Stephane Shephard</t>
-  </si>
-  <si>
-    <t>sshepherd@swin.edu.au</t>
-  </si>
-  <si>
     <t>Alicia Nijdam-Jones</t>
   </si>
   <si>
-    <t>alicia.nijdam-jones@umanitoba.ca</t>
-  </si>
-  <si>
     <t>Kelly McWilliams</t>
   </si>
   <si>
@@ -407,36 +335,12 @@
     <t>Lisa Kan</t>
   </si>
   <si>
-    <t>lisawk11@gmail.com</t>
-  </si>
-  <si>
-    <t>Sean Knuth</t>
-  </si>
-  <si>
-    <t>sbknuth@sbkphd.com</t>
-  </si>
-  <si>
     <t>Rosa Maria Abdelnour Granados</t>
   </si>
   <si>
     <t>rosabdelnour@hotmail.com</t>
   </si>
   <si>
-    <t>Yenys Castillo</t>
-  </si>
-  <si>
-    <t>dryenyscastillo@yahoo.com</t>
-  </si>
-  <si>
-    <t>2021–2024</t>
-  </si>
-  <si>
-    <t>Julia McLawsen</t>
-  </si>
-  <si>
-    <t>julia@lawandpsychology.net</t>
-  </si>
-  <si>
     <t>Danielle Rynczak</t>
   </si>
   <si>
@@ -464,9 +368,6 @@
     <t>Sara Millspaugh</t>
   </si>
   <si>
-    <t>smillspaugh@goldforensics.com</t>
-  </si>
-  <si>
     <t>Ashley Batastini</t>
   </si>
   <si>
@@ -479,9 +380,6 @@
     <t>jmarkey@markeypsych.com</t>
   </si>
   <si>
-    <t>Kristin Kolbinski</t>
-  </si>
-  <si>
     <t>kristin.kolbinski@gmail.com</t>
   </si>
   <si>
@@ -509,60 +407,18 @@
     <t>aprilclayton79@gmail.com</t>
   </si>
   <si>
-    <t>Alejandra de la Fuente</t>
-  </si>
-  <si>
-    <t>alejandra.de-la-fuente@port.ac.uk</t>
-  </si>
-  <si>
-    <t>Adele Quigley-McBride</t>
-  </si>
-  <si>
-    <t>adele.quigleymcbride@duke.edu</t>
-  </si>
-  <si>
-    <t>Catherine Shaffer-McCuish</t>
-  </si>
-  <si>
-    <t>cshaffer@sfu.ca</t>
-  </si>
-  <si>
-    <t>Diane Sivasubramaniam</t>
-  </si>
-  <si>
-    <t>dsivasubramaniam@swin.edu.au</t>
-  </si>
-  <si>
-    <t>Lesley Zannella</t>
-  </si>
-  <si>
-    <t>lesley.zannella@asu.edu</t>
-  </si>
-  <si>
     <t>Emilie Picard</t>
   </si>
   <si>
     <t>Epicard1@fordham.edu</t>
   </si>
   <si>
-    <t>Stephanie Cardenas</t>
-  </si>
-  <si>
-    <t>Sa1@williams.edu</t>
-  </si>
-  <si>
     <t>Cortney Simmons</t>
   </si>
   <si>
-    <t>Cortney.Cimmons@asu.edu</t>
-  </si>
-  <si>
     <t>Natalie Armstrong</t>
   </si>
   <si>
-    <t>Natalie.Armstrong-Hoskowitz@dbhds.virginia.gov</t>
-  </si>
-  <si>
     <t>Betsy Hunt</t>
   </si>
   <si>
@@ -587,18 +443,9 @@
     <t>sdemetrioff@hsc.mb.ca</t>
   </si>
   <si>
-    <t>Ariel Breaux</t>
-  </si>
-  <si>
-    <t>acbreau@gmail.com</t>
-  </si>
-  <si>
     <t>Kelsey Henderson</t>
   </si>
   <si>
-    <t>kelsey.henderson@pdx.eedu</t>
-  </si>
-  <si>
     <t>Georgia Winters</t>
   </si>
   <si>
@@ -632,12 +479,6 @@
     <t>Ebrank2@unl.edu</t>
   </si>
   <si>
-    <t>Gerry Koocher</t>
-  </si>
-  <si>
-    <t>koocher@gmail.com</t>
-  </si>
-  <si>
     <t>Dale McNiel</t>
   </si>
   <si>
@@ -659,27 +500,15 @@
     <t>Ends with term</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Additional</t>
   </si>
   <si>
     <t xml:space="preserve">2022-2025 </t>
   </si>
   <si>
-    <t>Incoming chair 2024-2025</t>
-  </si>
-  <si>
     <t>Incoming chair 2025-2026</t>
   </si>
   <si>
-    <t>Melodie Foellmi</t>
-  </si>
-  <si>
-    <t>mfoellmi@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-2025 </t>
   </si>
   <si>
@@ -701,21 +530,9 @@
     <t xml:space="preserve">2022-2027 </t>
   </si>
   <si>
-    <t>Incoming chair 2026-2027</t>
-  </si>
-  <si>
     <t>Colleen Berryessa</t>
   </si>
   <si>
-    <t>Colleen.Berryessa@rutgers.edu</t>
-  </si>
-  <si>
-    <t>Kathy Pedzek</t>
-  </si>
-  <si>
-    <t>Kathy.Pedzek@cgu.edu</t>
-  </si>
-  <si>
     <t>Jacqueline Evans</t>
   </si>
   <si>
@@ -731,9 +548,6 @@
     <t>Terry Maroney</t>
   </si>
   <si>
-    <t>terry.maroney@Vanderbilt.Edu</t>
-  </si>
-  <si>
     <t>Donna Shestowsky</t>
   </si>
   <si>
@@ -743,9 +557,6 @@
     <t>Christopher Slobogin</t>
   </si>
   <si>
-    <t>c.slobogin@vanderbilt.edu</t>
-  </si>
-  <si>
     <t>Jennifer Robbennolt</t>
   </si>
   <si>
@@ -779,66 +590,12 @@
     <t>Rebecca Rivas</t>
   </si>
   <si>
-    <t>Rrivas16@gmail.com</t>
-  </si>
-  <si>
-    <t>Incoming chair 2023-2026</t>
-  </si>
-  <si>
     <t>Lia Rohlehr</t>
   </si>
   <si>
-    <t>rohlehr@gmail.com</t>
-  </si>
-  <si>
-    <t>Alexander Millkey</t>
-  </si>
-  <si>
-    <t>millkeyway@gmail.com</t>
-  </si>
-  <si>
-    <t>Robert Beattey</t>
-  </si>
-  <si>
-    <t>rb1@beattey.org</t>
-  </si>
-  <si>
     <t>Rebecca Kastner</t>
   </si>
   <si>
-    <t>rebecca.m.kastner@state.mn.us</t>
-  </si>
-  <si>
-    <t>Veronica Sanchez Varela</t>
-  </si>
-  <si>
-    <t>vsvarela@gmail.com</t>
-  </si>
-  <si>
-    <t>Antoinette Kavanaugh</t>
-  </si>
-  <si>
-    <t>antoinette@drkavanaugh.com</t>
-  </si>
-  <si>
-    <t>Elisha Agee</t>
-  </si>
-  <si>
-    <t>agee@virginia.edu</t>
-  </si>
-  <si>
-    <t>Claire Bryson</t>
-  </si>
-  <si>
-    <t>cnbryson@gmail.com</t>
-  </si>
-  <si>
-    <t>Sherry Hills</t>
-  </si>
-  <si>
-    <t>shillspsy04@yahoo.com</t>
-  </si>
-  <si>
     <t>Jennifer Cox</t>
   </si>
   <si>
@@ -854,9 +611,6 @@
     <t>Alison Concannon</t>
   </si>
   <si>
-    <t>aconcann@uccs.edu</t>
-  </si>
-  <si>
     <t>Richelle Overton</t>
   </si>
   <si>
@@ -866,9 +620,6 @@
     <t>Jessica Pearson</t>
   </si>
   <si>
-    <t>Jpearsj02@nyu.edu</t>
-  </si>
-  <si>
     <t>Nicole.m.azores-gococo@emory.edu</t>
   </si>
   <si>
@@ -881,9 +632,6 @@
     <t>Liana Shelby</t>
   </si>
   <si>
-    <t>lianashelbypsyd@gmail.com</t>
-  </si>
-  <si>
     <t>Amanda Zelechoski</t>
   </si>
   <si>
@@ -899,9 +647,6 @@
     <t>Mary Tait</t>
   </si>
   <si>
-    <t>Mary.tait@marquette.edu</t>
-  </si>
-  <si>
     <t>Bradley McAuliff</t>
   </si>
   <si>
@@ -911,21 +656,9 @@
     <t>Meg.ternes@smu.ca</t>
   </si>
   <si>
-    <t>Lindsey Wylie</t>
-  </si>
-  <si>
-    <t>Leah Georges</t>
-  </si>
-  <si>
-    <t>leahgeorges@creighton.edu</t>
-  </si>
-  <si>
     <t>Ana Belmonte</t>
   </si>
   <si>
-    <t>abelmonte@thechicagoschool.edu</t>
-  </si>
-  <si>
     <t>Eyal Aharoni</t>
   </si>
   <si>
@@ -935,9 +668,6 @@
     <t>Megan Kienzle</t>
   </si>
   <si>
-    <t>kienzlem@apsu.edu</t>
-  </si>
-  <si>
     <t>Maire O’Hagan</t>
   </si>
   <si>
@@ -950,24 +680,6 @@
     <t>kaila.bruer@uregina.ca</t>
   </si>
   <si>
-    <t>Julie Blais</t>
-  </si>
-  <si>
-    <t>Julie.blais@dal.ca</t>
-  </si>
-  <si>
-    <t>Laurie Becker</t>
-  </si>
-  <si>
-    <t>lbecker017@g.rwu.edu</t>
-  </si>
-  <si>
-    <t>Paula Floyd</t>
-  </si>
-  <si>
-    <t>paula.floyd@usm.edu</t>
-  </si>
-  <si>
     <t>Shelby Hunter</t>
   </si>
   <si>
@@ -992,42 +704,15 @@
     <t>mary.e.wood@vumc.org</t>
   </si>
   <si>
-    <t>Richard Hough</t>
-  </si>
-  <si>
-    <t>rhough@uwf.edu</t>
-  </si>
-  <si>
-    <t>Molly Moreland</t>
-  </si>
-  <si>
-    <t>moreland@hood.edu</t>
-  </si>
-  <si>
     <t>Evan Lowder</t>
   </si>
   <si>
-    <t>elowder@gmu.edu</t>
-  </si>
-  <si>
-    <t>April Thomas</t>
-  </si>
-  <si>
-    <t>athomas5@utep.edu</t>
-  </si>
-  <si>
     <t>Melissa Hamilton</t>
   </si>
   <si>
     <t>melissa.hamilton@surrey.ac.uk</t>
   </si>
   <si>
-    <t>Lucy Guarnera</t>
-  </si>
-  <si>
-    <t>lucy.guarnera@gmail.com</t>
-  </si>
-  <si>
     <t>Mac Murphy</t>
   </si>
   <si>
@@ -1037,75 +722,18 @@
     <t>Lindsay.malloy@ontariotechu.ca</t>
   </si>
   <si>
-    <t>Kyle Scherr</t>
-  </si>
-  <si>
-    <t>scher1kc@cmich.edu</t>
-  </si>
-  <si>
-    <t>Naomi Goldstein</t>
-  </si>
-  <si>
-    <t>Neg23@drexel.edu</t>
-  </si>
-  <si>
-    <t>anabelmontepsyd@gmail.com</t>
-  </si>
-  <si>
-    <t>Amelia Mindthoff</t>
-  </si>
-  <si>
-    <t>amindt@iastate.edu</t>
-  </si>
-  <si>
-    <t>Thanh Ngo</t>
-  </si>
-  <si>
-    <t>thanhngo2606@gmail.com</t>
-  </si>
-  <si>
     <t>Greta Todd</t>
   </si>
   <si>
-    <t>Lynn_5412@yahoo.com</t>
-  </si>
-  <si>
-    <t>Justin Dear</t>
-  </si>
-  <si>
-    <t>justinliamdear@gmail.com</t>
-  </si>
-  <si>
-    <t>Carrie Tatum</t>
-  </si>
-  <si>
-    <t>carrietatum@gmail.com</t>
-  </si>
-  <si>
-    <t>Olivia O’Connell</t>
-  </si>
-  <si>
-    <t>ooconnell@ego.thechicagoschool.edu</t>
-  </si>
-  <si>
     <t>Casey LaDuke</t>
   </si>
   <si>
-    <t>claduke@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>Danielle.Rynczak@umassmed.edu</t>
-  </si>
-  <si>
     <t>Amanda Fanniff</t>
   </si>
   <si>
     <t>afanniff@paloaltou.edu</t>
   </si>
   <si>
-    <t>2023–2026</t>
-  </si>
-  <si>
     <t>Cassidy Haigh</t>
   </si>
   <si>
@@ -1175,9 +803,6 @@
     <t>Anthony Perillo</t>
   </si>
   <si>
-    <t>aperillo@salud.unm.edu</t>
-  </si>
-  <si>
     <t>Representative to the Forensic Board for the Council of Specialties (appointed by the Council)</t>
   </si>
   <si>
@@ -1187,9 +812,6 @@
     <t>Tess Neal</t>
   </si>
   <si>
-    <t>Tneal6@asu.edu</t>
-  </si>
-  <si>
     <t>Liaison to APA Advocacy Committee</t>
   </si>
   <si>
@@ -1199,9 +821,6 @@
     <t>Jordan Donson</t>
   </si>
   <si>
-    <t>jordan.donson16@gmail.com</t>
-  </si>
-  <si>
     <t>Communications Officer</t>
   </si>
   <si>
@@ -1223,57 +842,21 @@
     <t>Clinical Liaison</t>
   </si>
   <si>
-    <t>Aysha Nesbitt</t>
-  </si>
-  <si>
-    <t>anesbitt@wi.edu</t>
-  </si>
-  <si>
     <t>Experimental Liaison</t>
   </si>
   <si>
-    <t>Kimia Lavasani</t>
-  </si>
-  <si>
-    <t>kimia.lvsn@gmail.com</t>
-  </si>
-  <si>
     <t>Law Liaison</t>
   </si>
   <si>
-    <t>Marc Tittlebaum</t>
-  </si>
-  <si>
-    <t>mtittlebaum@tulane.edu</t>
-  </si>
-  <si>
     <t>Diversity Liaison</t>
   </si>
   <si>
-    <t>Suchika Siotia</t>
-  </si>
-  <si>
-    <t>suchisiotia@gmail.com</t>
-  </si>
-  <si>
     <t>Past Chair</t>
   </si>
   <si>
-    <t>Kamar Tazi</t>
-  </si>
-  <si>
-    <t>Kytazi19@gmail.com</t>
-  </si>
-  <si>
     <t>Douglas Lewis</t>
   </si>
   <si>
-    <t>Will (Minqui) Pan</t>
-  </si>
-  <si>
-    <t>Marco Chavez</t>
-  </si>
-  <si>
     <t>Eva Rubinova</t>
   </si>
   <si>
@@ -1289,12 +872,6 @@
     <t>Jan 2024- Dec 2029</t>
   </si>
   <si>
-    <t>Mia M. Ricardo</t>
-  </si>
-  <si>
-    <t>miamricardophd@gmail.com</t>
-  </si>
-  <si>
     <t>Megan Manheim</t>
   </si>
   <si>
@@ -1314,13 +891,575 @@
   </si>
   <si>
     <t>Lori Hoetger</t>
+  </si>
+  <si>
+    <t>Catherine Burke</t>
+  </si>
+  <si>
+    <t>Catherine.Burke@yale.edu</t>
+  </si>
+  <si>
+    <t>Andrea Dinsmore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea.Dinsmore@umassmed.edu </t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>mwiesner@Central.UH.EDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason.lawrence@dmh.mo.gov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn Maeder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn.maeder@carleton.ca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jir107@shsu.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Miller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr.sidhu@alienist.us </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nazores@emory.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyork@paloaltou.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lguzman.hosta@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cwillis-esqueda1@unl.edu </t>
+  </si>
+  <si>
+    <t>Kara Moore</t>
+  </si>
+  <si>
+    <t>karamoorephd@gmail.com</t>
+  </si>
+  <si>
+    <t>andretta@bridgetownpsychological.com</t>
+  </si>
+  <si>
+    <t>Leeza Rojas</t>
+  </si>
+  <si>
+    <t>leeza.rojas@du.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEK8M@uvahealth.org </t>
+  </si>
+  <si>
+    <t>Samantha Zottola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szottola@prainc.com </t>
+  </si>
+  <si>
+    <t>ce@ap-ls.org</t>
+  </si>
+  <si>
+    <t>2021-2025</t>
+  </si>
+  <si>
+    <t>saramillspaugh@gmail.com</t>
+  </si>
+  <si>
+    <t>2024-2028</t>
+  </si>
+  <si>
+    <t>Mariskha Bennett</t>
+  </si>
+  <si>
+    <t>bennett.mts@gmail.com</t>
+  </si>
+  <si>
+    <t>Erik Davis</t>
+  </si>
+  <si>
+    <t>kiresivad1@aol.com</t>
+  </si>
+  <si>
+    <t>Joni E. Johnston</t>
+  </si>
+  <si>
+    <t>joni@workrelationships.com</t>
+  </si>
+  <si>
+    <t>Chair </t>
+  </si>
+  <si>
+    <t>Kristin Kolbinski </t>
+  </si>
+  <si>
+    <t>Johanna Folk</t>
+  </si>
+  <si>
+    <t>Johanna.Folk@ucsf.edu</t>
+  </si>
+  <si>
+    <t>2025-2027</t>
+  </si>
+  <si>
+    <t>drtoddphd@gmail.com</t>
+  </si>
+  <si>
+    <t>Ava Alexander</t>
+  </si>
+  <si>
+    <t>aalexander@sa.utah.edu</t>
+  </si>
+  <si>
+    <t>Raquel Borg</t>
+  </si>
+  <si>
+    <t>rborg@paloaltou.edu</t>
+  </si>
+  <si>
+    <t> 2025-2027</t>
+  </si>
+  <si>
+    <t>Chair Elect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephanie Cardenas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sac1@williams.edu </t>
+  </si>
+  <si>
+    <t>Cortney.Simmons@asu.edu</t>
+  </si>
+  <si>
+    <t>Ashley C. Estoup</t>
+  </si>
+  <si>
+    <t>estoup@nwforensic.org</t>
+  </si>
+  <si>
+    <t>Jacqueline Katzman</t>
+  </si>
+  <si>
+    <t>jkatzman@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>Cassandra Flick</t>
+  </si>
+  <si>
+    <t>cassandra.flick@und.edu</t>
+  </si>
+  <si>
+    <t>Breanne Wylie</t>
+  </si>
+  <si>
+    <t>bewylie@ncsu.edu</t>
+  </si>
+  <si>
+    <t>Jesse Grabman</t>
+  </si>
+  <si>
+    <t>jgrabman@nmsu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alicia.nijdam-jones@umanitoba.ca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalie.Armstrong-Hoskowitz@dbhds.virginia.gov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair </t>
+  </si>
+  <si>
+    <t>Mia Ricardo</t>
+  </si>
+  <si>
+    <t>eva.rubinova@abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>kelsey.henderson@pdx.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miamricardophd@gmail.com </t>
+  </si>
+  <si>
+    <t>mmmanheim@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan.Cohn@oha.oregon.gov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">piap@uark.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerry Koocher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">koocher@gmail.com </t>
+  </si>
+  <si>
+    <t>Randy Salekin</t>
+  </si>
+  <si>
+    <t>Christian Meissner</t>
+  </si>
+  <si>
+    <t>ryan@nwforensic.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkovera@jjay.cuny.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecilia Allan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsalekin@ua.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vibarber@hotmail.com </t>
+  </si>
+  <si>
+    <t>Caitlin Cavanagh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caitcav@msu.edu </t>
+  </si>
+  <si>
+    <t>Heather Zelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zelle@virginia.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gwinters@fdu.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colleen.Berryessa@rutgers.edu </t>
+  </si>
+  <si>
+    <t>Melissa Slavin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.slavin@fdu.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">terry.maroney@Vanderbilt.Edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.slobogin@vanderbilt.edu </t>
+  </si>
+  <si>
+    <t>Katherine Sterling</t>
+  </si>
+  <si>
+    <t>ster5516@pacificu.edu</t>
+  </si>
+  <si>
+    <t>Lori Hoetger Fendrick</t>
+  </si>
+  <si>
+    <t>Andrea Barnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abarnesjdphd@gmail.com </t>
+  </si>
+  <si>
+    <t>rsalekin@ua.edu</t>
+  </si>
+  <si>
+    <t>Sarah Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah.L.Miller@maine.gov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cantone@gmail.com </t>
+  </si>
+  <si>
+    <t>2023-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rrivas16@gmail.com </t>
+  </si>
+  <si>
+    <t>Jennifer McAllister</t>
+  </si>
+  <si>
+    <t>jmcallisterpsyd@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohlehr@gmail.com </t>
+  </si>
+  <si>
+    <t>Alice Liang</t>
+  </si>
+  <si>
+    <t>asnsme968@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebecca.m.kastner@state.mn.us </t>
+  </si>
+  <si>
+    <t>Vera Klinoff</t>
+  </si>
+  <si>
+    <t>vera.klinoff@umassmed.edu</t>
+  </si>
+  <si>
+    <t>Maribel Leon</t>
+  </si>
+  <si>
+    <t>maribelleonpsy@gmail.com</t>
+  </si>
+  <si>
+    <t>Joshua Camins</t>
+  </si>
+  <si>
+    <t>jcami2@illinois.edu</t>
+  </si>
+  <si>
+    <t>Jason Frizzell</t>
+  </si>
+  <si>
+    <t>jasonfrizzellphd@gmail.com</t>
+  </si>
+  <si>
+    <t>John Bathori</t>
+  </si>
+  <si>
+    <t>dr.jonbathori@me.com</t>
+  </si>
+  <si>
+    <t>Sarah Fischel</t>
+  </si>
+  <si>
+    <t>Srp333@dragons.drexel.edu</t>
+  </si>
+  <si>
+    <t>2024-2029</t>
+  </si>
+  <si>
+    <t>Pearsj02@nyu.edu</t>
+  </si>
+  <si>
+    <t>Lianashelbypsyd@gmail.com</t>
+  </si>
+  <si>
+    <t>Abc097@shsu.edu</t>
+  </si>
+  <si>
+    <t>Student member</t>
+  </si>
+  <si>
+    <t>mary.tait@marquette.edu</t>
+  </si>
+  <si>
+    <t>David DeMatteo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsd25@drexel.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkmiller@unr.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abelmonte@thechicagoschool.edu </t>
+  </si>
+  <si>
+    <t>2021-2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elowder@gmu.edu </t>
+  </si>
+  <si>
+    <t>2020-2026</t>
+  </si>
+  <si>
+    <t>Michael Miner</t>
+  </si>
+  <si>
+    <t>miner001@umn.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kienzlem@apsu.edu </t>
+  </si>
+  <si>
+    <r>
+      <t>tessneal@iastate.edu</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Marc Boccaccini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSY_MTB@SHSU.edu </t>
+  </si>
+  <si>
+    <t>Ryan Fitzgerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_fitzgerald@sfu.ca </t>
+  </si>
+  <si>
+    <t>Jayce Owens-Boone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andrettajames1@gmail.com </t>
+  </si>
+  <si>
+    <t>(Chair Elect)</t>
+  </si>
+  <si>
+    <t>chaigh@bridgeport.edu</t>
+  </si>
+  <si>
+    <t>(Past Chair)</t>
+  </si>
+  <si>
+    <t>danielle.rynczak@umassmed.edu</t>
+  </si>
+  <si>
+    <t>claduke@jjay.cuny.edu   </t>
+  </si>
+  <si>
+    <t>lewis.douglas87@gmail.com</t>
+  </si>
+  <si>
+    <t>Will Pan</t>
+  </si>
+  <si>
+    <t>minqi.pan@gmail.com</t>
+  </si>
+  <si>
+    <t>Heath Hodges </t>
+  </si>
+  <si>
+    <t>heath.hodges@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaymes Fairfax-Columbo </t>
+  </si>
+  <si>
+    <t>jaymes.v.fairfaxcolumbo@gmail.com</t>
+  </si>
+  <si>
+    <t>Tarika Daftary-Kapur</t>
+  </si>
+  <si>
+    <t>daftarykaput@montclair.edu</t>
+  </si>
+  <si>
+    <t>Caroline Erentzen</t>
+  </si>
+  <si>
+    <t>erentzen@torontomu.ca</t>
+  </si>
+  <si>
+    <t>Kris Le Fan</t>
+  </si>
+  <si>
+    <t>kris@lefanlaw.com</t>
+  </si>
+  <si>
+    <t>lavita.Nadkarni@du.edu</t>
+  </si>
+  <si>
+    <t>Embracing Leadership Participant</t>
+  </si>
+  <si>
+    <t>Marina Mukhin</t>
+  </si>
+  <si>
+    <t>mmukhin7@gmail.com</t>
+  </si>
+  <si>
+    <t>Ahmar Zaman</t>
+  </si>
+  <si>
+    <t>azaman@uoregon.edu</t>
+  </si>
+  <si>
+    <t>Karen Elizabeth Grabowski </t>
+  </si>
+  <si>
+    <t>karen.grabowski@du.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aperillo@salud.unm.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">afanniff@paloaltou.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tessneal@iastate.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lek8m@virginia.edu </t>
+  </si>
+  <si>
+    <t>jordandonson@my.unt.edu</t>
+  </si>
+  <si>
+    <t>nowensboone@miners.utep.edu </t>
+  </si>
+  <si>
+    <t>Haylie Stewart</t>
+  </si>
+  <si>
+    <t>Hstewart2@crimson.ua.edu </t>
+  </si>
+  <si>
+    <t>Madison Dobreff</t>
+  </si>
+  <si>
+    <t>Mdobreff@my.nl.edu</t>
+  </si>
+  <si>
+    <t>Madeleine Ingham</t>
+  </si>
+  <si>
+    <t>mxi914@student.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>Elyssa Willis</t>
+  </si>
+  <si>
+    <t>ewillis@my.loyno.edu</t>
+  </si>
+  <si>
+    <t>Sana Vora </t>
+  </si>
+  <si>
+    <t>voras2@montclair.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1354,8 +1493,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Optima"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1368,8 +1528,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1377,11 +1543,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1389,9 +1608,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1644,10 +1890,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1675,7 +1921,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -1686,13 +1932,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -1703,13 +1949,13 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1720,13 +1966,13 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -1737,13 +1983,13 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -1754,13 +2000,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -1771,16 +2017,16 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1788,16 +2034,16 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -1805,104 +2051,104 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>410</v>
+        <v>271</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>412</v>
+        <v>273</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>411</v>
+        <v>272</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>413</v>
+        <v>274</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +2168,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1943,58 +2189,58 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>353</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2007,11 +2253,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2032,35 +2278,35 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>359</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -2069,64 +2315,62 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>356</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2140,11 +2384,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2163,71 +2407,66 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>208</v>
+        <v>361</v>
+      </c>
+      <c r="C4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>204</v>
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2240,11 +2479,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2263,114 +2502,94 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>365</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2383,11 +2602,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2408,100 +2627,142 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>370</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2514,11 +2775,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2539,55 +2800,55 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>376</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -2595,16 +2856,30 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2617,11 +2892,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2640,49 +2915,47 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>381</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>382</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>383</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>65</v>
@@ -2690,156 +2963,128 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>384</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>387</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>390</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>255</v>
+        <v>391</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>392</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>393</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>394</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>395</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>258</v>
+        <v>396</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>259</v>
+        <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2852,11 +3097,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2877,41 +3122,41 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>399</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>65</v>
@@ -2919,114 +3164,128 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>280</v>
+        <v>402</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3039,11 +3298,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3064,68 +3323,46 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>286</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3138,11 +3375,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3163,254 +3400,170 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>294</v>
+        <v>205</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>219</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>314</v>
+        <v>414</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3425,7 +3578,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3447,30 +3600,30 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>265</v>
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>421</v>
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3487,12 +3640,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3506,57 +3659,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>204</v>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:Lindsay.malloy@ontariotechu.ca" xr:uid="{B7D6C85D-0E38-3043-AA9F-0FD4E2191CF8}"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:tessneal@iastate.edu" xr:uid="{00AEA82B-7AAB-FC44-B9A1-12BEC3097FE3}"/>
+    <hyperlink ref="C4" r:id="rId3" display="mailto:PSY_MTB@SHSU.edu" xr:uid="{56B6C2D3-DB97-7545-B206-E7292084E0AA}"/>
+    <hyperlink ref="C5" r:id="rId4" display="mailto:r_fitzgerald@sfu.ca" xr:uid="{31B4ADC2-859F-A045-88A6-CEE284A572B5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3566,11 +3731,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3591,100 +3756,30 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>335</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3697,11 +3792,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3722,100 +3817,242 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>350</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>352</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>406</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>407</v>
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>408</v>
+        <v>269</v>
+      </c>
+      <c r="C9" t="s">
+        <v>428</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" t="s">
+        <v>446</v>
+      </c>
+      <c r="D18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3828,11 +4065,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3851,77 +4088,63 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3938,7 +4161,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3959,72 +4182,72 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>364</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>366</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>367</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>368</v>
+        <v>235</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>370</v>
+        <v>237</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +4264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4062,72 +4285,72 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>373</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>375</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>377</v>
+        <v>252</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>378</v>
+        <v>253</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>379</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>381</v>
+        <v>255</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>354</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>452</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4142,9 +4365,9 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4163,147 +4386,147 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>453</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>384</v>
+        <v>263</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>385</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>386</v>
+        <v>259</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>261</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>264</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>394</v>
+        <v>265</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>397</v>
+        <v>266</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>404</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>405</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4320,7 +4543,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4341,21 +4564,21 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>63</v>
@@ -4369,73 +4592,65 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4447,11 +4662,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4472,83 +4687,83 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>291</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>65</v>
@@ -4556,156 +4771,198 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>293</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>295</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4722,7 +4979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4747,72 +5004,72 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4829,7 +5086,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4850,41 +5107,41 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>65</v>
@@ -4892,100 +5149,100 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>313</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4998,11 +5255,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5023,100 +5280,156 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5133,7 +5446,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5154,27 +5467,27 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
@@ -5182,13 +5495,13 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>65</v>
@@ -5196,184 +5509,184 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>331</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>334</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>340</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5386,11 +5699,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5411,147 +5724,142 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>415</v>
+        <v>345</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>418</v>
+        <v>140</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/about/Leadership 2024-25.xlsx
+++ b/about/Leadership 2024-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/about/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB11FBA2-B26B-824A-99FC-BEF0E6B5067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23306BBB-0DA8-3E44-9689-0EB2D2280916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49460" yWindow="-1320" windowWidth="18200" windowHeight="20580" firstSheet="20" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26580" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="1" r:id="rId1"/>
@@ -18,34 +18,35 @@
     <sheet name="Book" sheetId="3" r:id="rId3"/>
     <sheet name="BRIDGE" sheetId="4" r:id="rId4"/>
     <sheet name="CAC" sheetId="5" r:id="rId5"/>
-    <sheet name="Continuing-Education" sheetId="6" r:id="rId6"/>
+    <sheet name="CE" sheetId="6" r:id="rId6"/>
     <sheet name="Corrections" sheetId="7" r:id="rId7"/>
     <sheet name="Dissertation" sheetId="8" r:id="rId8"/>
-    <sheet name="Early-Career" sheetId="9" r:id="rId9"/>
+    <sheet name="ECP" sheetId="9" r:id="rId9"/>
     <sheet name="Fellows" sheetId="10" r:id="rId10"/>
     <sheet name="Finance" sheetId="11" r:id="rId11"/>
     <sheet name="Governance" sheetId="12" r:id="rId12"/>
-    <sheet name="Grad-Student-Aid" sheetId="13" r:id="rId13"/>
-    <sheet name="Legal-Scholars" sheetId="14" r:id="rId14"/>
+    <sheet name="GradAid" sheetId="13" r:id="rId13"/>
+    <sheet name="Legal" sheetId="14" r:id="rId14"/>
     <sheet name="Nominations" sheetId="15" r:id="rId15"/>
     <sheet name="Practice" sheetId="16" r:id="rId16"/>
     <sheet name="Women" sheetId="17" r:id="rId17"/>
     <sheet name="Publications" sheetId="18" r:id="rId18"/>
     <sheet name="Research" sheetId="19" r:id="rId19"/>
-    <sheet name="Scientific-Paper" sheetId="20" r:id="rId20"/>
-    <sheet name="Social-Media" sheetId="21" r:id="rId21"/>
-    <sheet name="TTC" sheetId="22" r:id="rId22"/>
-    <sheet name="Undergrad-Paper" sheetId="23" r:id="rId23"/>
-    <sheet name="Undergrad-Student-Aid" sheetId="24" r:id="rId24"/>
-    <sheet name="Liaisons" sheetId="25" r:id="rId25"/>
-    <sheet name="Student Committee" sheetId="26" r:id="rId26"/>
+    <sheet name="Impact" sheetId="28" r:id="rId20"/>
+    <sheet name="SciencePaper" sheetId="29" r:id="rId21"/>
+    <sheet name="SocialMedia" sheetId="21" r:id="rId22"/>
+    <sheet name="Students" sheetId="26" r:id="rId23"/>
+    <sheet name="TTC" sheetId="22" r:id="rId24"/>
+    <sheet name="UGPaper" sheetId="23" r:id="rId25"/>
+    <sheet name="UGAid" sheetId="24" r:id="rId26"/>
+    <sheet name="Liaisons" sheetId="25" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="486">
   <si>
     <t>Position</t>
   </si>
@@ -1295,49 +1296,21 @@
     <t xml:space="preserve">kienzlem@apsu.edu </t>
   </si>
   <si>
-    <r>
-      <t>tessneal@iastate.edu</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Marc Boccaccini</t>
   </si>
   <si>
-    <t xml:space="preserve">PSY_MTB@SHSU.edu </t>
-  </si>
-  <si>
     <t>Ryan Fitzgerald</t>
   </si>
   <si>
-    <t xml:space="preserve">r_fitzgerald@sfu.ca </t>
-  </si>
-  <si>
     <t>Jayce Owens-Boone</t>
   </si>
   <si>
     <t xml:space="preserve">andrettajames1@gmail.com </t>
   </si>
   <si>
-    <t>(Chair Elect)</t>
-  </si>
-  <si>
     <t>chaigh@bridgeport.edu</t>
   </si>
   <si>
-    <t>(Past Chair)</t>
-  </si>
-  <si>
     <t>danielle.rynczak@umassmed.edu</t>
   </si>
   <si>
@@ -1453,13 +1426,91 @@
   </si>
   <si>
     <t>voras2@montclair.edu</t>
+  </si>
+  <si>
+    <t>JTPerillo@salud.unm.edu</t>
+  </si>
+  <si>
+    <t>Aperillo@salud.unm.edu</t>
+  </si>
+  <si>
+    <t>Hayley Cleary</t>
+  </si>
+  <si>
+    <t>hmcleary@vcu.edu</t>
+  </si>
+  <si>
+    <t>Graham Danzer</t>
+  </si>
+  <si>
+    <t>graham.danzer@maine.edu</t>
+  </si>
+  <si>
+    <t>Corey Leidenfrost</t>
+  </si>
+  <si>
+    <t>coreylei@buffalo.edu</t>
+  </si>
+  <si>
+    <t>Carrie Tatum</t>
+  </si>
+  <si>
+    <t>carrietatum@gmail.com</t>
+  </si>
+  <si>
+    <t>Gina Vincent</t>
+  </si>
+  <si>
+    <t>gina.vincent@umassmed.edu</t>
+  </si>
+  <si>
+    <t>Sarah Desmarais</t>
+  </si>
+  <si>
+    <t>dsdesmarais@prainc.com</t>
+  </si>
+  <si>
+    <t>tamara.kang@siu.edu</t>
+  </si>
+  <si>
+    <t>kienzlem@apsu.edu</t>
+  </si>
+  <si>
+    <t>Joshua Behl</t>
+  </si>
+  <si>
+    <t>Awards Sub Committee</t>
+  </si>
+  <si>
+    <t>Education in Science Communication Sub Committee</t>
+  </si>
+  <si>
+    <t>Structural Resources for Advocacy Sub Committee</t>
+  </si>
+  <si>
+    <t>r_fitzgerald@sfu.ca</t>
+  </si>
+  <si>
+    <t>tessneal@iastate.edu</t>
+  </si>
+  <si>
+    <t>PSY_MTB@SHSU.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nowensboone@miners.utep.edu  </t>
+  </si>
+  <si>
+    <t>anabelmontepsyd@gmail.com</t>
+  </si>
+  <si>
+    <t>UGAid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1480,13 +1531,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF316AD6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
@@ -1494,28 +1538,14 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Optima"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1528,14 +1558,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1543,64 +1567,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1608,36 +1579,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2090,7 +2033,7 @@
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2256,8 +2199,8 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2388,7 +2331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2483,7 +2426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2779,7 +2722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3101,7 +3044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D13"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3302,7 +3245,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3331,6 +3274,7 @@
       <c r="C2" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3342,6 +3286,7 @@
       <c r="C3" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -3353,6 +3298,7 @@
       <c r="C4" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -3364,6 +3310,7 @@
       <c r="C5" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3632,20 +3579,20 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586B9110-E79A-B54F-B6C9-3FED36B981DF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3658,75 +3605,346 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>278</v>
+      <c r="B2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" t="s">
+        <v>471</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B14" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="mailto:Lindsay.malloy@ontariotechu.ca" xr:uid="{B7D6C85D-0E38-3043-AA9F-0FD4E2191CF8}"/>
-    <hyperlink ref="C3" r:id="rId2" display="mailto:tessneal@iastate.edu" xr:uid="{00AEA82B-7AAB-FC44-B9A1-12BEC3097FE3}"/>
-    <hyperlink ref="C4" r:id="rId3" display="mailto:PSY_MTB@SHSU.edu" xr:uid="{56B6C2D3-DB97-7545-B206-E7292084E0AA}"/>
-    <hyperlink ref="C5" r:id="rId4" display="mailto:r_fitzgerald@sfu.ca" xr:uid="{31B4ADC2-859F-A045-88A6-CEE284A572B5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E0FA81-E64B-6C47-B65E-C166036D9652}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3735,7 +3953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3759,10 +3977,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>484</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>67</v>
@@ -3773,285 +3991,12 @@
         <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
+      </c>
+      <c r="C3" t="s">
+        <v>483</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C10" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C11" t="s">
-        <v>432</v>
-      </c>
-      <c r="D11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C12" t="s">
-        <v>434</v>
-      </c>
-      <c r="D12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>435</v>
-      </c>
-      <c r="C13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>437</v>
-      </c>
-      <c r="C14" t="s">
-        <v>438</v>
-      </c>
-      <c r="D14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>439</v>
-      </c>
-      <c r="C15" t="s">
-        <v>440</v>
-      </c>
-      <c r="D15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" t="s">
-        <v>441</v>
-      </c>
-      <c r="D16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B17" t="s">
-        <v>443</v>
-      </c>
-      <c r="C17" t="s">
-        <v>444</v>
-      </c>
-      <c r="D17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>442</v>
-      </c>
-      <c r="B18" t="s">
-        <v>445</v>
-      </c>
-      <c r="C18" t="s">
-        <v>446</v>
-      </c>
-      <c r="D18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B19" t="s">
-        <v>447</v>
-      </c>
-      <c r="C19" t="s">
-        <v>448</v>
-      </c>
-      <c r="D19" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4061,6 +4006,442 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4069,7 +4450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4152,7 +4533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4161,7 +4542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D6"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4185,7 +4566,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>485</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>231</v>
@@ -4255,7 +4636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4264,7 +4645,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D6"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4305,7 +4686,7 @@
         <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>67</v>
@@ -4319,7 +4700,7 @@
         <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>65</v>
@@ -4333,7 +4714,7 @@
         <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>65</v>
@@ -4347,186 +4728,10 @@
         <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4979,7 +5184,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5084,9 +5289,9 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D11"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5259,7 +5464,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5703,7 +5908,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/about/Leadership 2024-25.xlsx
+++ b/about/Leadership 2024-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/about/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23306BBB-0DA8-3E44-9689-0EB2D2280916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397CC226-48BC-6C44-BB06-FC12272DBE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26580" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="560" windowWidth="38680" windowHeight="13860" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="507">
   <si>
     <t>Position</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Voting</t>
   </si>
   <si>
-    <t>President</t>
-  </si>
-  <si>
     <t>Dan Murrie</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Past President</t>
-  </si>
-  <si>
     <t>President Elect</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Jennifer Perillo</t>
   </si>
   <si>
-    <t>jtperillo@salud.unm.edu</t>
-  </si>
-  <si>
     <t>Member-at-Large</t>
   </si>
   <si>
@@ -117,12 +108,6 @@
     <t>vibarber@hotmail.com</t>
   </si>
   <si>
-    <t>Natalie Anumba</t>
-  </si>
-  <si>
-    <t>natalie.anumba@umassmed.edu</t>
-  </si>
-  <si>
     <t>Jessica Salerno</t>
   </si>
   <si>
@@ -132,24 +117,9 @@
     <t>APA Council Representative</t>
   </si>
   <si>
-    <t>Jen Groscup</t>
-  </si>
-  <si>
-    <t>jgroscup@scrippscollege.edu</t>
-  </si>
-  <si>
-    <t>Jan 2024 – Dec 2027</t>
-  </si>
-  <si>
     <t>Margaret Bull Kovera</t>
   </si>
   <si>
-    <t>mkovera@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>Jan 2022 – Dec 2025</t>
-  </si>
-  <si>
     <t>Student Committee Chair</t>
   </si>
   <si>
@@ -195,12 +165,6 @@
     <t>Website Editor</t>
   </si>
   <si>
-    <t>Lindsay Wylie</t>
-  </si>
-  <si>
-    <t>slwylie@unomaha.edu</t>
-  </si>
-  <si>
     <t>Co-Chair</t>
   </si>
   <si>
@@ -228,9 +192,6 @@
     <t>Member</t>
   </si>
   <si>
-    <t>Margit Wiesner</t>
-  </si>
-  <si>
     <t>2021-2024</t>
   </si>
   <si>
@@ -333,9 +294,6 @@
     <t>kmcwilliams@jjay.cuny.edu</t>
   </si>
   <si>
-    <t>Lisa Kan</t>
-  </si>
-  <si>
     <t>Rosa Maria Abdelnour Granados</t>
   </si>
   <si>
@@ -357,9 +315,6 @@
     <t>Tim Saar</t>
   </si>
   <si>
-    <t>timsaar@saarpsychologicalgroup.com</t>
-  </si>
-  <si>
     <t>Frank Dyer</t>
   </si>
   <si>
@@ -378,18 +333,9 @@
     <t>John Markey</t>
   </si>
   <si>
-    <t>jmarkey@markeypsych.com</t>
-  </si>
-  <si>
-    <t>kristin.kolbinski@gmail.com</t>
-  </si>
-  <si>
     <t>Tamara Kang</t>
   </si>
   <si>
-    <t>Tamara.kang@siu.edu</t>
-  </si>
-  <si>
     <t>Kimberly Larson</t>
   </si>
   <si>
@@ -408,12 +354,6 @@
     <t>aprilclayton79@gmail.com</t>
   </si>
   <si>
-    <t>Emilie Picard</t>
-  </si>
-  <si>
-    <t>Epicard1@fordham.edu</t>
-  </si>
-  <si>
     <t>Cortney Simmons</t>
   </si>
   <si>
@@ -471,9 +411,6 @@
     <t>Emma Marshall</t>
   </si>
   <si>
-    <t>emma.marshall@huskers.unl.edu</t>
-  </si>
-  <si>
     <t>Eve Brank</t>
   </si>
   <si>
@@ -540,9 +477,6 @@
     <t>jacevans@fiu.edu</t>
   </si>
   <si>
-    <t>Brandon Garrett</t>
-  </si>
-  <si>
     <t>bgarrett@law.duke.edu</t>
   </si>
   <si>
@@ -648,12 +582,6 @@
     <t>Mary Tait</t>
   </si>
   <si>
-    <t>Bradley McAuliff</t>
-  </si>
-  <si>
-    <t>Bradley.mcauliff@csun.edu</t>
-  </si>
-  <si>
     <t>Meg.ternes@smu.ca</t>
   </si>
   <si>
@@ -762,9 +690,6 @@
     <t>BG2DD@uvahealth.org</t>
   </si>
   <si>
-    <t>picae@apsu.edu</t>
-  </si>
-  <si>
     <t>Amory Carr</t>
   </si>
   <si>
@@ -861,18 +786,6 @@
     <t>Eva Rubinova</t>
   </si>
   <si>
-    <t>(Outgoing) Law and Human Behavior Editor</t>
-  </si>
-  <si>
-    <t>(Incoming) Law and Human Behavior Editor</t>
-  </si>
-  <si>
-    <t>Jan 2019- Dec 2024</t>
-  </si>
-  <si>
-    <t>Jan 2024- Dec 2029</t>
-  </si>
-  <si>
     <t>Megan Manheim</t>
   </si>
   <si>
@@ -885,15 +798,9 @@
     <t>2024-2027</t>
   </si>
   <si>
-    <t>AP-LS 2025</t>
-  </si>
-  <si>
     <t>lhoetger2@unl.edu</t>
   </si>
   <si>
-    <t>Lori Hoetger</t>
-  </si>
-  <si>
     <t>Catherine Burke</t>
   </si>
   <si>
@@ -909,12 +816,6 @@
     <t>2024-2025</t>
   </si>
   <si>
-    <t>mwiesner@Central.UH.EDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason.lawrence@dmh.mo.gov </t>
-  </si>
-  <si>
     <t xml:space="preserve">Evelyn Maeder </t>
   </si>
   <si>
@@ -942,21 +843,6 @@
     <t xml:space="preserve">cwillis-esqueda1@unl.edu </t>
   </si>
   <si>
-    <t>Kara Moore</t>
-  </si>
-  <si>
-    <t>karamoorephd@gmail.com</t>
-  </si>
-  <si>
-    <t>andretta@bridgetownpsychological.com</t>
-  </si>
-  <si>
-    <t>Leeza Rojas</t>
-  </si>
-  <si>
-    <t>leeza.rojas@du.edu</t>
-  </si>
-  <si>
     <t xml:space="preserve">LEK8M@uvahealth.org </t>
   </si>
   <si>
@@ -966,9 +852,6 @@
     <t xml:space="preserve">szottola@prainc.com </t>
   </si>
   <si>
-    <t>ce@ap-ls.org</t>
-  </si>
-  <si>
     <t>2021-2025</t>
   </si>
   <si>
@@ -984,30 +867,12 @@
     <t>bennett.mts@gmail.com</t>
   </si>
   <si>
-    <t>Erik Davis</t>
-  </si>
-  <si>
-    <t>kiresivad1@aol.com</t>
-  </si>
-  <si>
     <t>Joni E. Johnston</t>
   </si>
   <si>
-    <t>joni@workrelationships.com</t>
-  </si>
-  <si>
-    <t>Chair </t>
-  </si>
-  <si>
-    <t>Kristin Kolbinski </t>
-  </si>
-  <si>
     <t>Johanna Folk</t>
   </si>
   <si>
-    <t>Johanna.Folk@ucsf.edu</t>
-  </si>
-  <si>
     <t>2025-2027</t>
   </si>
   <si>
@@ -1023,24 +888,12 @@
     <t>Raquel Borg</t>
   </si>
   <si>
-    <t>rborg@paloaltou.edu</t>
-  </si>
-  <si>
-    <t> 2025-2027</t>
-  </si>
-  <si>
     <t>Chair Elect</t>
   </si>
   <si>
     <t xml:space="preserve">Member </t>
   </si>
   <si>
-    <t xml:space="preserve">Stephanie Cardenas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sac1@williams.edu </t>
-  </si>
-  <si>
     <t>Cortney.Simmons@asu.edu</t>
   </si>
   <si>
@@ -1071,9 +924,6 @@
     <t>Jesse Grabman</t>
   </si>
   <si>
-    <t>jgrabman@nmsu.edu</t>
-  </si>
-  <si>
     <t xml:space="preserve">alicia.nijdam-jones@umanitoba.ca </t>
   </si>
   <si>
@@ -1092,18 +942,6 @@
     <t>kelsey.henderson@pdx.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">miamricardophd@gmail.com </t>
-  </si>
-  <si>
-    <t>mmmanheim@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathan.Cohn@oha.oregon.gov </t>
-  </si>
-  <si>
-    <t xml:space="preserve">piap@uark.edu </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gerry Koocher </t>
   </si>
   <si>
@@ -1116,33 +954,18 @@
     <t>Christian Meissner</t>
   </si>
   <si>
-    <t>ryan@nwforensic.org</t>
-  </si>
-  <si>
     <t xml:space="preserve">mkovera@jjay.cuny.edu </t>
   </si>
   <si>
-    <t xml:space="preserve">Cecilia Allan </t>
-  </si>
-  <si>
     <t xml:space="preserve">rsalekin@ua.edu </t>
   </si>
   <si>
-    <t xml:space="preserve">vibarber@hotmail.com </t>
-  </si>
-  <si>
     <t>Caitlin Cavanagh</t>
   </si>
   <si>
-    <t xml:space="preserve">caitcav@msu.edu </t>
-  </si>
-  <si>
     <t>Heather Zelle</t>
   </si>
   <si>
-    <t xml:space="preserve">zelle@virginia.edu </t>
-  </si>
-  <si>
     <t xml:space="preserve">gwinters@fdu.edu </t>
   </si>
   <si>
@@ -1152,9 +975,6 @@
     <t>Melissa Slavin</t>
   </si>
   <si>
-    <t xml:space="preserve">m.slavin@fdu.edu </t>
-  </si>
-  <si>
     <t xml:space="preserve">terry.maroney@Vanderbilt.Edu </t>
   </si>
   <si>
@@ -1173,9 +993,6 @@
     <t>Andrea Barnes</t>
   </si>
   <si>
-    <t xml:space="preserve">abarnesjdphd@gmail.com </t>
-  </si>
-  <si>
     <t>rsalekin@ua.edu</t>
   </si>
   <si>
@@ -1504,13 +1321,282 @@
   </si>
   <si>
     <t>UGAid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Past President </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindsay Malloy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jtperillo@salud.unm.edu </t>
+  </si>
+  <si>
+    <t>caitcav@msu.edu</t>
+  </si>
+  <si>
+    <t>jessica.salerno@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jen Groscup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jgroscup@scrippscollege.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APA Council Representative </t>
+  </si>
+  <si>
+    <t>Lavita.nadkarni@du.edu</t>
+  </si>
+  <si>
+    <t>CSWhite7@crimson.au.edu</t>
+  </si>
+  <si>
+    <t>Law and Human Behavior Editor</t>
+  </si>
+  <si>
+    <t>Incoming Student Committee Chair</t>
+  </si>
+  <si>
+    <t>Sidra Capriolo</t>
+  </si>
+  <si>
+    <t>smcapriolo@crimson.ua.edu</t>
+  </si>
+  <si>
+    <t>2025-2026</t>
+  </si>
+  <si>
+    <t>2024-2030</t>
+  </si>
+  <si>
+    <t>2025-2028</t>
+  </si>
+  <si>
+    <t>2025-2025</t>
+  </si>
+  <si>
+    <t>Heath Hedges</t>
+  </si>
+  <si>
+    <t>Luna Filipovic Hawkins</t>
+  </si>
+  <si>
+    <t>AP-LS 2026 Co-chair</t>
+  </si>
+  <si>
+    <t>Picae@apsu.edu</t>
+  </si>
+  <si>
+    <t>Margi Weisner</t>
+  </si>
+  <si>
+    <t>mfwiesner@uh.edu</t>
+  </si>
+  <si>
+    <t>Member name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term </t>
+  </si>
+  <si>
+    <t>jmlawrencephd@gmail.com</t>
+  </si>
+  <si>
+    <t>Student Committee Liaison</t>
+  </si>
+  <si>
+    <t>Sana Vora</t>
+  </si>
+  <si>
+    <t>Voras2@montclair.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">timsaar@saarpsychologicalgroup.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-2027 </t>
+  </si>
+  <si>
+    <t>Tate Madison</t>
+  </si>
+  <si>
+    <t>sierratmadison@gmail.com</t>
+  </si>
+  <si>
+    <t>Joni@workrelationships.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmarkey@markeypsych.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristin Kolbinski </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kristin.kolbinski@gmail.com </t>
+  </si>
+  <si>
+    <t>Johanna.folk@ucsf.edu</t>
+  </si>
+  <si>
+    <t>rborg@paloaltau.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jgrabman@nmsu.edu</t>
+  </si>
+  <si>
+    <t>Member (Incoming Chair 2026-2029)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilhan Toredi </t>
+  </si>
+  <si>
+    <t>dtoredi@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>Kristina Baker (Todorovic)</t>
+  </si>
+  <si>
+    <t>ktodorovic@usi.edu</t>
+  </si>
+  <si>
+    <t>Erika Fountain</t>
+  </si>
+  <si>
+    <t>erika.fountain@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emily Weinberger </t>
+  </si>
+  <si>
+    <t>emily.weinberger@cuanschutz.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Stevens </t>
+  </si>
+  <si>
+    <t>lms.327.ls@googlemail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shyanne Anthony </t>
+  </si>
+  <si>
+    <t>shyanne.anthony18@gmail.com</t>
+  </si>
+  <si>
+    <t>Victoria Dykstra</t>
+  </si>
+  <si>
+    <t>vdykstra@mun.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> miamricardophd@gmail.com </t>
+  </si>
+  <si>
+    <t>Emma.marshall@huskers.unl.edu</t>
+  </si>
+  <si>
+    <t>Mmmanheim@gmail.com</t>
+  </si>
+  <si>
+    <t>Jonathan.Cohn@oha.oregon.gov</t>
+  </si>
+  <si>
+    <t>Piap@uark.edu</t>
+  </si>
+  <si>
+    <t>Samantha Kurus</t>
+  </si>
+  <si>
+    <t>sjk021@shsu.edu</t>
+  </si>
+  <si>
+    <t>2023-2026 (second term)</t>
+  </si>
+  <si>
+    <t>2023-2026 (2nd term)</t>
+  </si>
+  <si>
+    <r>
+      <t>2022-2025 (2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>term)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">tarajryan@gmail.com </t>
+  </si>
+  <si>
+    <t>CAWhite7@crimson.au.edu</t>
+  </si>
+  <si>
+    <t>2024-2027 (Chair 2026-2027)</t>
+  </si>
+  <si>
+    <t>abatastini@salud.unm.edu</t>
+  </si>
+  <si>
+    <t>zelle@virginia.edu</t>
+  </si>
+  <si>
+    <t>(chair 2025-2026)</t>
+  </si>
+  <si>
+    <t>(chair 2026-2027)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Past Chair</t>
+  </si>
+  <si>
+    <t>(chair 2024-2025)</t>
+  </si>
+  <si>
+    <t>m.slavin@fdu.edu</t>
+  </si>
+  <si>
+    <t>2023-2026 (Chair 2025-2026)</t>
+  </si>
+  <si>
+    <t>2025-2028 (Chair 2027-2028)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brandon Garrett</t>
+  </si>
+  <si>
+    <t>abarnesjdphd@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1529,15 +1615,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Belleza"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1545,18 +1638,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1574,11 +1661,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,10 +1885,10 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -1811,293 +1896,297 @@
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D12" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="D14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="D15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" t="s">
+        <v>439</v>
+      </c>
+      <c r="D17" t="s">
+        <v>440</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{5B480EE6-C28D-B646-8B86-0B32DCFE2B87}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2111,82 +2200,86 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:Ebrank2@unl.edu" xr:uid="{5FDDDBE9-29CF-C544-930F-1DC60FE5CA7F}"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:koocher@gmail.com" xr:uid="{96BE762F-2461-1843-B9AA-6BE4380CCDA3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2199,125 +2292,132 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>358</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>494</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:treasurer@ap-ls.org" xr:uid="{78D907C1-73AC-6840-BEC5-5A0626922EF0}"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:rsalekin@ua.edu" xr:uid="{B466206C-9560-0846-BDC1-9F0877B32F08}"/>
+    <hyperlink ref="C5" r:id="rId3" display="mailto:cameissn@iastate.edu" xr:uid="{A7E78065-CC3E-4B49-9849-58926BA905AD}"/>
+    <hyperlink ref="C6" r:id="rId4" display="mailto:tarajryan@gmail.com" xr:uid="{A4DA3256-82E1-9547-9466-A2FAC31D0C1F}"/>
+    <hyperlink ref="C7" r:id="rId5" display="mailto:mkovera@jjay.cuny.edu" xr:uid="{D8DD03DE-6BAA-AB4D-8691-CB5EF75B6353}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2331,88 +2431,88 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>361</v>
+      <c r="D2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>496</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>497</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B210E602-2488-334C-B645-4FEAB4E93A01}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2422,120 +2522,162 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" t="s">
-        <v>368</v>
-      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:wingroveta@appstate.edu" xr:uid="{9C9A8787-6732-D04C-AB25-F773DCE1DF8D}"/>
+    <hyperlink ref="C4" r:id="rId2" display="mailto:jbehl@flagler.edu" xr:uid="{F3F7B96E-CB04-924D-ACD1-DA0D4CD8E6FC}"/>
+    <hyperlink ref="C6" r:id="rId3" display="mailto:gwinters@fdu.edu" xr:uid="{D6DC1146-5E8D-BD4C-ACE8-A5E51F70515E}"/>
+    <hyperlink ref="C8" r:id="rId4" display="mailto:Colleen.Berryessa@rutgers.edu" xr:uid="{27C32691-AF38-704F-898C-6BCCA78C887D}"/>
+    <hyperlink ref="C10" r:id="rId5" display="mailto:jacevans@fiu.edu" xr:uid="{D8312EDF-2E7B-BE45-BE11-6814FA1C9183}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2547,168 +2689,179 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D11"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>506</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:bgarrett@law.duke.edu" xr:uid="{A110B50A-293F-8B48-AC29-BFC2B67EBEBA}"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:terry.maroney@Vanderbilt.Edu" xr:uid="{48B0F902-95BB-824F-8B76-758EF48E3BB8}"/>
+    <hyperlink ref="C4" r:id="rId3" display="mailto:dshest@ucdavis.edu" xr:uid="{AB2ACF5B-32FF-8D46-BE11-3F145837003F}"/>
+    <hyperlink ref="C5" r:id="rId4" display="mailto:c.slobogin@vanderbilt.edu" xr:uid="{F0D9674D-06C7-7942-8D32-4309F59214D4}"/>
+    <hyperlink ref="C6" r:id="rId5" display="mailto:jrobbenn@illinois.edu" xr:uid="{B6A18BCD-87C2-9247-987B-0D044339ED58}"/>
+    <hyperlink ref="C7" r:id="rId6" display="mailto:dsimon@law.usc.edu" xr:uid="{8DB9D0B1-DDD1-8D43-85C6-B60F8EBA3CB2}"/>
+    <hyperlink ref="C8" r:id="rId7" display="mailto:cward@wm.edu" xr:uid="{231E0951-BEEF-3045-9CAE-D74BBCA20191}"/>
+    <hyperlink ref="C9" r:id="rId8" display="mailto:ster5516@pacificu.edu" xr:uid="{060D4FC9-3EEA-514C-AF21-18C4A984ABDC}"/>
+    <hyperlink ref="C11" r:id="rId9" display="mailto:lhoetger2@unl.edu" xr:uid="{047B7701-C36D-0F47-8531-92126E779E2C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2725,9 +2878,9 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,88 +2894,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2842,9 +2995,9 @@
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2858,176 +3011,176 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3047,9 +3200,9 @@
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3063,172 +3216,172 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3248,9 +3401,9 @@
       <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3264,51 +3417,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -3329,9 +3482,9 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3345,172 +3498,172 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>413</v>
+        <v>352</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3526,12 +3679,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3545,33 +3698,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>446</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>446</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" t="s">
-        <v>280</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3590,9 +3732,9 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3606,200 +3748,200 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>479</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>479</v>
+        <v>54</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>479</v>
+        <v>54</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>479</v>
+        <v>54</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>464</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>479</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>478</v>
+        <v>54</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>478</v>
+        <v>54</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>478</v>
+        <v>54</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>478</v>
+        <v>54</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
-        <v>473</v>
+        <v>412</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>478</v>
+        <v>54</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>477</v>
+        <v>54</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3819,9 +3961,9 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3835,105 +3977,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
+        <v>421</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>417</v>
+        <v>356</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3956,9 +4098,9 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3972,32 +4114,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>483</v>
+        <v>422</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4017,9 +4159,9 @@
       <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4033,147 +4175,147 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>449</v>
+        <v>388</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>455</v>
+        <v>394</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4193,9 +4335,9 @@
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4209,231 +4351,231 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>425</v>
+        <v>364</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="C13" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="B15" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="C16" t="s">
-        <v>441</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4453,9 +4595,9 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4469,63 +4611,63 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4545,9 +4687,9 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4561,74 +4703,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>485</v>
+        <v>424</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4648,9 +4790,9 @@
       <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4664,74 +4806,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4748,12 +4890,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4767,97 +4909,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="mailto:SMK8N@virginia.edu" xr:uid="{A7FAE6A8-B97A-3B47-BCB6-174D0F953221}"/>
+    <hyperlink ref="C4" r:id="rId2" display="mailto:Catherine.Burke@yale.edu" xr:uid="{60AA86C9-CBAF-E140-8059-08D54C3E79EC}"/>
+    <hyperlink ref="C5" r:id="rId3" display="mailto:Andrea.Dinsmore@umassmed.edu" xr:uid="{9EC246B3-3A03-0C4E-AF09-4B100A32DDA6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4871,306 +5018,287 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>301</v>
-      </c>
-      <c r="C21" t="s">
-        <v>302</v>
-      </c>
-      <c r="D21" t="s">
-        <v>278</v>
-      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:BishopC@trinitydc.edu" xr:uid="{B3AA3DA8-6E44-D144-B0A0-A47BF1FE3CE1}"/>
+    <hyperlink ref="C4" r:id="rId2" display="mailto:Evelyn.maeder@carleton.ca" xr:uid="{78595DF5-28B4-9743-96B9-61934E68A93D}"/>
+    <hyperlink ref="C5" r:id="rId3" display="mailto:Jir107@shsu.edu" xr:uid="{3C478994-9374-FF4B-8C5C-30EF00759EE5}"/>
+    <hyperlink ref="C6" r:id="rId4" display="mailto:Amiller0@illinois.edu" xr:uid="{49080FED-4964-9E40-AD0F-BEF0D85F291F}"/>
+    <hyperlink ref="C7" r:id="rId5" display="mailto:dr.latoya.conner@gmail.com" xr:uid="{CB8DB557-7DC0-6644-8B31-4504CC2CA0B9}"/>
+    <hyperlink ref="C8" r:id="rId6" display="mailto:dr.sidhu@alienist.us" xr:uid="{107C6550-4137-3C4E-8DED-E497FF117F5E}"/>
+    <hyperlink ref="C9" r:id="rId7" display="mailto:nazores@emory.edu" xr:uid="{09C539E1-D729-3445-971C-137E473DFB9A}"/>
+    <hyperlink ref="C10" r:id="rId8" display="mailto:Tyork@paloaltou.edu" xr:uid="{33477C07-D087-F043-A9F0-7775682C6C1A}"/>
+    <hyperlink ref="C11" r:id="rId9" display="mailto:lguzman.hosta@gmail.com" xr:uid="{521836AB-3CFB-334B-B328-59FED509F6B4}"/>
+    <hyperlink ref="C12" r:id="rId10" display="mailto:cwillis-esqueda1@unl.edu" xr:uid="{E16109A2-A079-9D4F-BB84-7F7CD575A4F0}"/>
+    <hyperlink ref="C13" r:id="rId11" display="mailto:jamesrandretta@gmail.com" xr:uid="{D293E631-15C0-6742-94BB-168430FA277C}"/>
+    <hyperlink ref="C14" r:id="rId12" display="mailto:anmeoyer@gmail.com" xr:uid="{E7608761-9B6D-BA46-A43A-BCA4179E5F6B}"/>
+    <hyperlink ref="C15" r:id="rId13" display="mailto:Christina-Perez@Colby-Sawyer.edu" xr:uid="{1127014C-3B6A-BC4E-BB59-613E7D4E9BF1}"/>
+    <hyperlink ref="C16" r:id="rId14" display="mailto:Laurenryanphd@gmail.com" xr:uid="{50F4D0EA-E731-2D4B-A672-EFB35FE5AB19}"/>
+    <hyperlink ref="C17" r:id="rId15" display="mailto:rgreenspan1@gmail.com" xr:uid="{8A54AC9F-F29E-E14F-834E-CF189055711E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5184,100 +5312,107 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>278</v>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:ehaney-caron@jjay.cuny.edu" xr:uid="{95DAF5DD-9CAF-0845-A47A-3DC92620352F}"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:kmcwilliams@jjay.cuny.edu" xr:uid="{15C190E6-ABD4-3B4A-ACEF-E153500B924E}"/>
+    <hyperlink ref="C4" r:id="rId3" display="mailto:Andre.kehn@und.edu" xr:uid="{405D7197-3AFD-0B41-9215-BBB0BC06AF80}"/>
+    <hyperlink ref="C5" r:id="rId4" display="mailto:LEK8M@uvahealth.org" xr:uid="{4718F561-AE82-9643-A807-6D385E650AE8}"/>
+    <hyperlink ref="C6" r:id="rId5" display="mailto:szottola@prainc.com" xr:uid="{F36D448A-80F5-164D-804F-B21CD275CE2F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5289,168 +5424,166 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>278</v>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="mailto:Danielle.rynczak@umassmed.edu" xr:uid="{476E0037-D7CF-F340-96F6-6091F35B3439}"/>
+    <hyperlink ref="C5" r:id="rId2" display="mailto:Jen.hale@okstate.edu" xr:uid="{B618EE22-0543-1449-ACF1-89C2AAFEFD39}"/>
+    <hyperlink ref="C6" r:id="rId3" display="mailto:timsaar@saarpsychologicalgroup.com" xr:uid="{18DF36C8-3573-DB40-AE35-70B67C6D22EB}"/>
+    <hyperlink ref="C7" r:id="rId4" display="mailto:fjdyer@comcast.net" xr:uid="{EEF78054-F081-724E-98B9-063142F04F4C}"/>
+    <hyperlink ref="C8" r:id="rId5" display="mailto:rosabdelnour@hotmail.com" xr:uid="{2F4A644E-806E-9A43-AE9A-B4A1BA7B52A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5460,184 +5593,178 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
         <v>119</v>
       </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>466</v>
       </c>
       <c r="D10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" t="s">
-        <v>326</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="mailto:jmarkey@markeypsych.com" xr:uid="{7BF30C8E-A9CE-B845-B9CC-FFBC719E523B}"/>
+    <hyperlink ref="C4" r:id="rId2" display="mailto:kristin.kolbinski@gmail.com" xr:uid="{2225E987-3A6F-5142-8DE8-94419E09FF0E}"/>
+    <hyperlink ref="C5" r:id="rId3" display="mailto:kimberly_larson@williamjames.edu" xr:uid="{7035E435-D87F-7F4B-9F6B-3F4D812ED29E}"/>
+    <hyperlink ref="C6" r:id="rId4" display="mailto:gnawalanic@kumc.edu" xr:uid="{DFCA95DE-5939-1A45-BCB2-C9D0B8BEB160}"/>
+    <hyperlink ref="C7" r:id="rId5" display="mailto:aprilclayton79@gmail.com" xr:uid="{FE30C6DC-8864-4B4D-81B4-0DDEBB09950C}"/>
+    <hyperlink ref="C11" r:id="rId6" display="mailto:aalexander@sa.utah.edu" xr:uid="{17EE7C9B-4F95-8C43-9185-3461ED8BBCC2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5647,254 +5774,336 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D17"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>278</v>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" t="s">
+        <v>474</v>
+      </c>
+      <c r="D18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C19" t="s">
+        <v>476</v>
+      </c>
+      <c r="D19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" t="s">
+        <v>482</v>
+      </c>
+      <c r="D23" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5904,170 +6113,192 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomLeft" sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>345</v>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>483</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:miamricardophd@gmail.com" xr:uid="{AC9C4936-8ED8-9F4B-810E-FB3E90B9D106}"/>
+    <hyperlink ref="C4" r:id="rId2" display="mailto:kelsey.henderson@pdx.edu" xr:uid="{251917B6-086D-2742-818A-B03DCE137202}"/>
+    <hyperlink ref="C5" r:id="rId3" display="mailto:Emma.marshall@huskers.unl.edu" xr:uid="{06B52C94-17BD-054D-970D-E963253CB31F}"/>
+    <hyperlink ref="C6" r:id="rId4" display="mailto:gwinters@fdu.edu" xr:uid="{D7604645-5A45-254F-9B81-4B7241786CF7}"/>
+    <hyperlink ref="C7" r:id="rId5" display="mailto:morganacadia@gmail.com" xr:uid="{C47C5A64-9113-CB46-B032-2F77D0D4CB92}"/>
+    <hyperlink ref="C8" r:id="rId6" display="mailto:drbrandidiaz@gmail.com" xr:uid="{73B0632F-1E49-824C-BE7E-D5EEBF7BC577}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>